--- a/data/trans_orig/P57_AF_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>369556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>345530</v>
+        <v>346276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393914</v>
+        <v>390212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6326483785885819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.591517539265333</v>
+        <v>0.5927957382989271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6743466584484927</v>
+        <v>0.6680104553001369</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>496</v>
@@ -765,19 +765,19 @@
         <v>520839</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>491759</v>
+        <v>488184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>549941</v>
+        <v>553684</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5652985318896848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5337355021082369</v>
+        <v>0.52985515456432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5968836104181635</v>
+        <v>0.6009465155705186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>863</v>
@@ -786,19 +786,19 @@
         <v>890395</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>850773</v>
+        <v>853810</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928670</v>
+        <v>931996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5914306992782751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5651124033187316</v>
+        <v>0.5671296667314167</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6168542184943364</v>
+        <v>0.6190632988966726</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>214585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190227</v>
+        <v>193929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238611</v>
+        <v>237865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3673516214114181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3256533415515072</v>
+        <v>0.3319895446998626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4084824607346668</v>
+        <v>0.4072042617010727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>388</v>
@@ -836,19 +836,19 @@
         <v>400514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>371412</v>
+        <v>367669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>429594</v>
+        <v>433169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4347014681103151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4031163895818365</v>
+        <v>0.3990534844294814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4662644978917631</v>
+        <v>0.4701448454356801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>595</v>
@@ -857,19 +857,19 @@
         <v>615099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>576824</v>
+        <v>573498</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>654721</v>
+        <v>651684</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4085693007217249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3831457815056636</v>
+        <v>0.3809367011033274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4348875966812684</v>
+        <v>0.4328703332685832</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>648144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>613021</v>
+        <v>615170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>680863</v>
+        <v>680300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6019122053003524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5692940432999154</v>
+        <v>0.5712901270600294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6322966276829085</v>
+        <v>0.6317741548548064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>633</v>
@@ -982,19 +982,19 @@
         <v>653920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>623600</v>
+        <v>620005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>685836</v>
+        <v>682304</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6189237474661581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5902266836245208</v>
+        <v>0.5868239023967636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6491317708605713</v>
+        <v>0.6457886827533788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1273</v>
@@ -1003,19 +1003,19 @@
         <v>1302064</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1257046</v>
+        <v>1257709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1343989</v>
+        <v>1347834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6103371732565701</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5892352702189944</v>
+        <v>0.5895459796002541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6299893956089123</v>
+        <v>0.6317916841924672</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>428665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>395946</v>
+        <v>396509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463788</v>
+        <v>461639</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3980877946996476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3677033723170914</v>
+        <v>0.368225845145194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4307059567000846</v>
+        <v>0.4287098729399708</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>394</v>
@@ -1053,19 +1053,19 @@
         <v>402623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>370707</v>
+        <v>374239</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432943</v>
+        <v>436538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3810762525338419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3508682291394287</v>
+        <v>0.3542113172466214</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4097733163754792</v>
+        <v>0.4131760976032365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>808</v>
@@ -1074,19 +1074,19 @@
         <v>831288</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>789363</v>
+        <v>785518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>876306</v>
+        <v>875643</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3896628267434299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3700106043910876</v>
+        <v>0.3682083158075327</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4107647297810055</v>
+        <v>0.4104540203997458</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>667590</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>632012</v>
+        <v>634157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>699740</v>
+        <v>699675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5961463337419011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5643757301507578</v>
+        <v>0.5662910903471029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6248550520757555</v>
+        <v>0.6247970066055822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>635</v>
@@ -1199,19 +1199,19 @@
         <v>644652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>608173</v>
+        <v>614354</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>673031</v>
+        <v>674816</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6485828841099945</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.611881272710607</v>
+        <v>0.6180995605546571</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6771340785954602</v>
+        <v>0.6789299305010967</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1295</v>
@@ -1220,19 +1220,19 @@
         <v>1312243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1270395</v>
+        <v>1270095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1353105</v>
+        <v>1359356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6208029660170222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6010055876091879</v>
+        <v>0.6008633323556115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6401341310071708</v>
+        <v>0.6430916457522392</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>452253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420103</v>
+        <v>420168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>487831</v>
+        <v>485686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4038536662580989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3751449479242444</v>
+        <v>0.3752029933944178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4356242698492421</v>
+        <v>0.4337089096528971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -1270,19 +1270,19 @@
         <v>349288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320909</v>
+        <v>319124</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>385767</v>
+        <v>379586</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3514171158900055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3228659214045398</v>
+        <v>0.3210700694989033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.388118727289393</v>
+        <v>0.381900439445343</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>789</v>
@@ -1291,19 +1291,19 @@
         <v>801540</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>760678</v>
+        <v>754427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>843388</v>
+        <v>843688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3791970339829777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3598658689928291</v>
+        <v>0.3569083542477608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.398994412390812</v>
+        <v>0.3991366676443885</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>271928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249853</v>
+        <v>251567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292277</v>
+        <v>293356</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6103644681820984</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5608155996575701</v>
+        <v>0.5646615168280946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6560389663825881</v>
+        <v>0.6584608817964173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>199</v>
@@ -1416,19 +1416,19 @@
         <v>202080</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>182421</v>
+        <v>184828</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>220246</v>
+        <v>219754</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5923368978503931</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5347102447898076</v>
+        <v>0.5417678959805161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6455829533020537</v>
+        <v>0.6441417346295168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>463</v>
@@ -1437,19 +1437,19 @@
         <v>474009</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>448214</v>
+        <v>444305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>498829</v>
+        <v>498709</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6025464452214329</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5697572236929703</v>
+        <v>0.5647871638734067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6340972591943949</v>
+        <v>0.6339448859248905</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>173590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>153241</v>
+        <v>152162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195665</v>
+        <v>193951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3896355318179016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3439610336174119</v>
+        <v>0.3415391182035828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.43918440034243</v>
+        <v>0.4353384831719054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -1487,19 +1487,19 @@
         <v>139078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120912</v>
+        <v>121404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158737</v>
+        <v>156330</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4076631021496068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3544170466979463</v>
+        <v>0.3558582653704832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4652897552101924</v>
+        <v>0.458232104019484</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>310</v>
@@ -1508,19 +1508,19 @@
         <v>312667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>287847</v>
+        <v>287967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>338462</v>
+        <v>342371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3974535547785671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3659027408056051</v>
+        <v>0.3660551140751095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4302427763070297</v>
+        <v>0.4352128361265934</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1957220</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1901053</v>
+        <v>1901234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2014412</v>
+        <v>2014994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.606643004348287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5892341115259495</v>
+        <v>0.589290223454107</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6243697868294725</v>
+        <v>0.6245503436820106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1963</v>
@@ -1633,19 +1633,19 @@
         <v>2021492</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1968854</v>
+        <v>1967200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2079431</v>
+        <v>2074776</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6101707331314214</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5942824053122748</v>
+        <v>0.5937831943489105</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6276591551495154</v>
+        <v>0.6262541710732124</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3894</v>
@@ -1654,19 +1654,19 @@
         <v>3978712</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3903988</v>
+        <v>3897689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4067993</v>
+        <v>4057036</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6084302496578298</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5970034515780884</v>
+        <v>0.5960401887198691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6220832922039956</v>
+        <v>0.6204077651975115</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1269092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1211900</v>
+        <v>1211318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1325259</v>
+        <v>1325078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3933569956517129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3756302131705277</v>
+        <v>0.3754496563179891</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4107658884740506</v>
+        <v>0.4107097765458929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1269</v>
@@ -1704,19 +1704,19 @@
         <v>1291502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1233563</v>
+        <v>1238218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1344140</v>
+        <v>1345794</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3898292668685785</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3723408448504846</v>
+        <v>0.3737458289267878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4057175946877252</v>
+        <v>0.4062168056510896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2502</v>
@@ -1725,19 +1725,19 @@
         <v>2560594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2471313</v>
+        <v>2482270</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2635318</v>
+        <v>2641617</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3915697503421702</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3779167077960043</v>
+        <v>0.3795922348024885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4029965484219115</v>
+        <v>0.4039598112801309</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>654267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>621846</v>
+        <v>623107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>684668</v>
+        <v>686707</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6329065693740588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.601544647709772</v>
+        <v>0.6027643052217557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6623157469808862</v>
+        <v>0.6642883407031311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>703</v>
@@ -2090,19 +2090,19 @@
         <v>763789</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>730323</v>
+        <v>727114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>796524</v>
+        <v>795148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6883105924592252</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6581511894857583</v>
+        <v>0.6552591436087087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7178099512872445</v>
+        <v>0.7165703767445097</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1316</v>
@@ -2111,19 +2111,19 @@
         <v>1418056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1374221</v>
+        <v>1371512</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1463628</v>
+        <v>1462637</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6615896592917698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6411386194293129</v>
+        <v>0.6398747181780547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6828509553858165</v>
+        <v>0.6823888802146797</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>379482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>349081</v>
+        <v>347042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>411903</v>
+        <v>410642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3670934306259413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.337684253019114</v>
+        <v>0.3357116592968689</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.398455352290228</v>
+        <v>0.3972356947782441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -2161,19 +2161,19 @@
         <v>345869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>313134</v>
+        <v>314510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>379335</v>
+        <v>382544</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3116894075407748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2821900487127555</v>
+        <v>0.2834296232554904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3418488105142418</v>
+        <v>0.3447408563912913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>675</v>
@@ -2182,19 +2182,19 @@
         <v>725351</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>679779</v>
+        <v>680770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769186</v>
+        <v>771895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3384103407082302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3171490446141835</v>
+        <v>0.3176111197853203</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3588613805706869</v>
+        <v>0.3601252818219453</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>611896</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>582809</v>
+        <v>581814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>644952</v>
+        <v>643499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6287235677795476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5988368378042259</v>
+        <v>0.5978142985859749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6626886997448153</v>
+        <v>0.6611959287824749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>697</v>
@@ -2307,19 +2307,19 @@
         <v>750959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>718646</v>
+        <v>717525</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>783230</v>
+        <v>779948</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6907972252095713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6610734531720089</v>
+        <v>0.660041618864839</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7204826767758979</v>
+        <v>0.7174644130749289</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1268</v>
@@ -2328,19 +2328,19 @@
         <v>1362855</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1317913</v>
+        <v>1320910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1404182</v>
+        <v>1408738</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6614755022770024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6396625960668655</v>
+        <v>0.641117133927156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6815341134696495</v>
+        <v>0.683745684410867</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>361339</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328283</v>
+        <v>329736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>390426</v>
+        <v>391421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3712764322204524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3373113002551848</v>
+        <v>0.3388040712175251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4011631621957741</v>
+        <v>0.4021857014140249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -2378,19 +2378,19 @@
         <v>336131</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>303860</v>
+        <v>307142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368444</v>
+        <v>369565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3092027747904287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.279517323224102</v>
+        <v>0.2825355869250709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3389265468279911</v>
+        <v>0.3399583811351607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>665</v>
@@ -2399,19 +2399,19 @@
         <v>697470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656143</v>
+        <v>651587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>742412</v>
+        <v>739415</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3385244977229976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3184658865303504</v>
+        <v>0.316254315589133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3603374039331345</v>
+        <v>0.3588828660728442</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>566496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>536061</v>
+        <v>536116</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>594010</v>
+        <v>594558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6421469761661865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.607647368699828</v>
+        <v>0.6077098607569527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6733352477976796</v>
+        <v>0.6739562665796522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>562</v>
@@ -2524,19 +2524,19 @@
         <v>600353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>570546</v>
+        <v>571746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>623866</v>
+        <v>628900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6879082921455574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6537541152685811</v>
+        <v>0.6551290687221554</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7148511249191488</v>
+        <v>0.7206184192636759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1087</v>
@@ -2545,19 +2545,19 @@
         <v>1166849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1125080</v>
+        <v>1128924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1204623</v>
+        <v>1207683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6649041689842771</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6411029126627981</v>
+        <v>0.6432931555722975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6864286641315526</v>
+        <v>0.688172423243009</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>315695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288181</v>
+        <v>287633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>346130</v>
+        <v>346075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3578530238338135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3266647522023206</v>
+        <v>0.3260437334203483</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.392352631300172</v>
+        <v>0.3922901392430476</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -2595,19 +2595,19 @@
         <v>272369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248856</v>
+        <v>243822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302176</v>
+        <v>300976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3120917078544426</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2851488750808513</v>
+        <v>0.279381580736324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3462458847314189</v>
+        <v>0.3448709312778441</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>559</v>
@@ -2616,19 +2616,19 @@
         <v>588064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>550290</v>
+        <v>547230</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>629833</v>
+        <v>625989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3350958310157229</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3135713358684473</v>
+        <v>0.3118275767569909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3588970873372018</v>
+        <v>0.3567068444277023</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>267610</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>245777</v>
+        <v>242767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292146</v>
+        <v>289409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5363536797564036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4925945883255392</v>
+        <v>0.486561250645164</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5855293023087464</v>
+        <v>0.5800428125701685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>215</v>
@@ -2741,19 +2741,19 @@
         <v>236823</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>215527</v>
+        <v>213977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259025</v>
+        <v>257858</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5298861499696415</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4822375029769014</v>
+        <v>0.4787680204514214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.579561818379653</v>
+        <v>0.5769508986655864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>460</v>
@@ -2762,19 +2762,19 @@
         <v>504433</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>470665</v>
+        <v>472386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>539020</v>
+        <v>538417</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.533297734833574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4975976273503487</v>
+        <v>0.4994171241745772</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5698637721461831</v>
+        <v>0.5692258598679604</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>231334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206798</v>
+        <v>209535</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>253167</v>
+        <v>256177</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4636463202435964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4144706976912529</v>
+        <v>0.4199571874298313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5074054116744606</v>
+        <v>0.5134387493548359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>192</v>
@@ -2812,19 +2812,19 @@
         <v>210109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>187907</v>
+        <v>189074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231405</v>
+        <v>232955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4701138500303585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4204381816203471</v>
+        <v>0.4230491013344141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5177624970230988</v>
+        <v>0.5212319795485787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>404</v>
@@ -2833,19 +2833,19 @@
         <v>441442</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>406855</v>
+        <v>407458</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>475210</v>
+        <v>473489</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.466702265166426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.430136227853817</v>
+        <v>0.4307741401320397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5024023726496514</v>
+        <v>0.5005828758254228</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2100269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2041288</v>
+        <v>2041208</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2157529</v>
+        <v>2154390</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6198923554512449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6024842695343013</v>
+        <v>0.6024606102507776</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6367924250507567</v>
+        <v>0.6358661757840121</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2177</v>
@@ -2958,19 +2958,19 @@
         <v>2351923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2295582</v>
+        <v>2297320</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2406793</v>
+        <v>2407211</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6688438754458711</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6528215140188769</v>
+        <v>0.653315575149384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6844478240342811</v>
+        <v>0.6845666383792662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4131</v>
@@ -2979,19 +2979,19 @@
         <v>4452192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4370123</v>
+        <v>4374333</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4534119</v>
+        <v>4549182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6448228609713653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6329365800148706</v>
+        <v>0.6335462812239667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.656688504983528</v>
+        <v>0.6588701414538954</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1287850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1230590</v>
+        <v>1233729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1346831</v>
+        <v>1346911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3801076445487551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3632075749492433</v>
+        <v>0.3641338242159879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3975157304656988</v>
+        <v>0.3975393897492221</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1085</v>
@@ -3029,19 +3029,19 @@
         <v>1164478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1109608</v>
+        <v>1109190</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1220819</v>
+        <v>1219081</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.331156124554129</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3155521759657187</v>
+        <v>0.3154333616207338</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3471784859811229</v>
+        <v>0.3466844248506158</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2303</v>
@@ -3050,19 +3050,19 @@
         <v>2452328</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2370401</v>
+        <v>2355338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2534397</v>
+        <v>2530187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3551771390286346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3433114950164721</v>
+        <v>0.3411298585461046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3670634199851296</v>
+        <v>0.3664537187760333</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>896512</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>866170</v>
+        <v>868282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>923964</v>
+        <v>921385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7986812361167427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7716507064478488</v>
+        <v>0.7735321995581181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8231378230549353</v>
+        <v>0.8208406906378509</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>944</v>
@@ -3415,19 +3415,19 @@
         <v>1005056</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>974892</v>
+        <v>976385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1032893</v>
+        <v>1031746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7997565152665239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.775754680191599</v>
+        <v>0.7769425633703874</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8219077368793144</v>
+        <v>0.8209950840292194</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1794</v>
@@ -3436,19 +3436,19 @@
         <v>1901567</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1853527</v>
+        <v>1859089</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1935894</v>
+        <v>1940644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7992492042902292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7790578047227785</v>
+        <v>0.7813953255369038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8136773605206177</v>
+        <v>0.8156739340300633</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>225978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198526</v>
+        <v>201105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>256320</v>
+        <v>254208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2013187638832573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1768621769450648</v>
+        <v>0.1791593093621492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2283492935521512</v>
+        <v>0.2264678004418819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -3486,19 +3486,19 @@
         <v>251646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223809</v>
+        <v>224956</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281810</v>
+        <v>280317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2002434847334761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.178092263120686</v>
+        <v>0.1790049159707806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2242453198084012</v>
+        <v>0.2230574366296126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -3507,19 +3507,19 @@
         <v>477624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443297</v>
+        <v>438547</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>525664</v>
+        <v>520102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2007507957097709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1863226394793822</v>
+        <v>0.1843260659699365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2209421952772214</v>
+        <v>0.218604674463096</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>682220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>653159</v>
+        <v>656092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>709340</v>
+        <v>707748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7543205241269459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7221882474862541</v>
+        <v>0.7254321600433694</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7843075523593189</v>
+        <v>0.7825474336585647</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>731</v>
@@ -3632,19 +3632,19 @@
         <v>773420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>744954</v>
+        <v>745758</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>799171</v>
+        <v>798412</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7743980234426868</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7458965666682833</v>
+        <v>0.7467007399300476</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8001817598175589</v>
+        <v>0.799421851437117</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1391</v>
@@ -3653,19 +3653,19 @@
         <v>1455640</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1418490</v>
+        <v>1416699</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1491434</v>
+        <v>1490769</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7648567988079708</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7453366897948698</v>
+        <v>0.7443957922754616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7836646875287508</v>
+        <v>0.7833152013736154</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>222196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>195076</v>
+        <v>196668</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>251257</v>
+        <v>248324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2456794758730541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2156924476406811</v>
+        <v>0.2174525663414352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2778117525137459</v>
+        <v>0.2745678399566306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>214</v>
@@ -3703,19 +3703,19 @@
         <v>225317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>199566</v>
+        <v>200325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>253783</v>
+        <v>252979</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2256019765573132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1998182401824409</v>
+        <v>0.200578148562883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2541034333317165</v>
+        <v>0.2532992600699524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>431</v>
@@ -3724,19 +3724,19 @@
         <v>447513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>411719</v>
+        <v>412384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>484663</v>
+        <v>486454</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2351432011920292</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2163353124712491</v>
+        <v>0.2166847986263845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2546633102051303</v>
+        <v>0.2556042077245385</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>601203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>577526</v>
+        <v>574533</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>627545</v>
+        <v>628694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7323077500599277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7034663901163578</v>
+        <v>0.6998216812352742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7643931645862785</v>
+        <v>0.7657930658710779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>535</v>
@@ -3849,19 +3849,19 @@
         <v>570986</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>547005</v>
+        <v>544464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>595544</v>
+        <v>595312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7445869083593992</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7133148854599198</v>
+        <v>0.7100016141514189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.776611393552483</v>
+        <v>0.7763094576073974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1108</v>
@@ -3870,19 +3870,19 @@
         <v>1172189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1138633</v>
+        <v>1137911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1210574</v>
+        <v>1208930</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7382380563228957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7171048689723193</v>
+        <v>0.7166498602997649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7624123941012156</v>
+        <v>0.761377435014077</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>219768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193426</v>
+        <v>192277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243445</v>
+        <v>246438</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2676922499400723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2356068354137216</v>
+        <v>0.2342069341289221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2965336098836422</v>
+        <v>0.3001783187647258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -3920,19 +3920,19 @@
         <v>195863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171305</v>
+        <v>171537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>219844</v>
+        <v>222385</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2554130916406007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.223388606447517</v>
+        <v>0.2236905423926026</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2866851145400797</v>
+        <v>0.2899983858485811</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>400</v>
@@ -3941,19 +3941,19 @@
         <v>415631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>377246</v>
+        <v>378890</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>449187</v>
+        <v>449909</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2617619436771043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2375876058987844</v>
+        <v>0.2386225649859232</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2828951310276808</v>
+        <v>0.2833501397002353</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>295368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>273440</v>
+        <v>272389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>316614</v>
+        <v>318636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5859538333975772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5424541336812161</v>
+        <v>0.5403684238027053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6281030456966795</v>
+        <v>0.6321146462858508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>295</v>
@@ -4066,19 +4066,19 @@
         <v>319668</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>297688</v>
+        <v>298601</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>340030</v>
+        <v>340970</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6554366585784299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6103699638991842</v>
+        <v>0.6122429836628396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6971861448119911</v>
+        <v>0.69911403688906</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>568</v>
@@ -4087,19 +4087,19 @@
         <v>615035</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>582058</v>
+        <v>586169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>645334</v>
+        <v>645573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6201220745420747</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5868731827459632</v>
+        <v>0.5910180989281938</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6506723700945951</v>
+        <v>0.6509128329758596</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>208712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187466</v>
+        <v>185444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>230640</v>
+        <v>231691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4140461666024228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3718969543033206</v>
+        <v>0.3678853537141491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4575458663187838</v>
+        <v>0.4596315761972947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>158</v>
@@ -4137,19 +4137,19 @@
         <v>168049</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147687</v>
+        <v>146747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>190029</v>
+        <v>189116</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3445633414215701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3028138551880089</v>
+        <v>0.3008859631109397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3896300361008157</v>
+        <v>0.3877570163371601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>354</v>
@@ -4158,19 +4158,19 @@
         <v>376761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>346462</v>
+        <v>346223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409738</v>
+        <v>405627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3798779254579254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3493276299054048</v>
+        <v>0.3490871670241404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4131268172540367</v>
+        <v>0.4089819010718059</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2475302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2420054</v>
+        <v>2421267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2527299</v>
+        <v>2524505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7384648209577399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7219827590766572</v>
+        <v>0.7223445459210479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7539773894362409</v>
+        <v>0.7531437021866925</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2505</v>
@@ -4283,19 +4283,19 @@
         <v>2669128</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2621553</v>
+        <v>2618915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2719906</v>
+        <v>2724767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7604345024769562</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7468804120684858</v>
+        <v>0.7461287418004263</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7749011706732113</v>
+        <v>0.7762861171752437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4861</v>
@@ -4304,19 +4304,19 @@
         <v>5144430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5066873</v>
+        <v>5067411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5213530</v>
+        <v>5218571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7497026695104043</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7384002167414138</v>
+        <v>0.7384785934831947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.759772643005252</v>
+        <v>0.7605072222304933</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>876654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>824657</v>
+        <v>827451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>931902</v>
+        <v>930689</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2615351790422601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2460226105637591</v>
+        <v>0.2468562978133075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2780172409233427</v>
+        <v>0.2776554540789521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>802</v>
@@ -4354,19 +4354,19 @@
         <v>840876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>790098</v>
+        <v>785237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>888451</v>
+        <v>891089</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2395654975230438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2250988293267889</v>
+        <v>0.2237138828247563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2531195879315143</v>
+        <v>0.2538712581995736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1637</v>
@@ -4375,19 +4375,19 @@
         <v>1717531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1648431</v>
+        <v>1643390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1795088</v>
+        <v>1794550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2502973304895957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.240227356994748</v>
+        <v>0.2394927777695067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2615997832585862</v>
+        <v>0.2615214065168053</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>349464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>324021</v>
+        <v>323145</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>369898</v>
+        <v>369277</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7060580247874744</v>
+        <v>0.7060580247874743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.654653109820599</v>
+        <v>0.652882843141769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7473421910435224</v>
+        <v>0.7460881803115429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>616</v>
@@ -4740,19 +4740,19 @@
         <v>437598</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>415695</v>
+        <v>415995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>458484</v>
+        <v>457424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7094518283755179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6739424550949841</v>
+        <v>0.6744283941043241</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7433131532085904</v>
+        <v>0.7415954514304182</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>948</v>
@@ -4761,19 +4761,19 @@
         <v>787062</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>757396</v>
+        <v>756454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>817513</v>
+        <v>816147</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7079409233573836</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6812575259196194</v>
+        <v>0.6804096426231662</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7353307186738708</v>
+        <v>0.7341018752599637</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>145487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125053</v>
+        <v>125674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170930</v>
+        <v>171806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2939419752125257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2526578089564777</v>
+        <v>0.2539118196884571</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3453468901794018</v>
+        <v>0.347117156858231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -4811,19 +4811,19 @@
         <v>179213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158327</v>
+        <v>159387</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>201116</v>
+        <v>200816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.290548171624482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2566868467914092</v>
+        <v>0.2584045485695817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.326057544905016</v>
+        <v>0.3255716058956758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -4832,19 +4832,19 @@
         <v>324700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294249</v>
+        <v>295615</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>354366</v>
+        <v>355308</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2920590766426162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2646692813261288</v>
+        <v>0.265898124740036</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3187424740803806</v>
+        <v>0.3195903573768337</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>643227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>604384</v>
+        <v>610999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>675332</v>
+        <v>677781</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6755199756178827</v>
+        <v>0.6755199756178828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6347270838424586</v>
+        <v>0.6416745571664717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.709237012139518</v>
+        <v>0.7118093781523244</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1097</v>
@@ -4957,19 +4957,19 @@
         <v>744389</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>715911</v>
+        <v>717233</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>772204</v>
+        <v>769468</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6731151929846405</v>
+        <v>0.6731151929846404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6473635637709573</v>
+        <v>0.6485589623206459</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6982667220875759</v>
+        <v>0.6957929247559059</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1730</v>
@@ -4978,19 +4978,19 @@
         <v>1387616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1343894</v>
+        <v>1339867</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1427470</v>
+        <v>1429507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6742277929834841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6529838714849935</v>
+        <v>0.651027043194173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6935923319673566</v>
+        <v>0.6945820999567838</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>308968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>276863</v>
+        <v>274414</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>347811</v>
+        <v>341196</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3244800243821172</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.290762987860482</v>
+        <v>0.2881906218476755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3652729161575414</v>
+        <v>0.3583254428335282</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -5028,19 +5028,19 @@
         <v>361498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>333683</v>
+        <v>336419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389976</v>
+        <v>388654</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3268848070153595</v>
+        <v>0.3268848070153594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.301733277912424</v>
+        <v>0.3042070752440941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3526364362290426</v>
+        <v>0.3514410376793542</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>762</v>
@@ -5049,19 +5049,19 @@
         <v>670466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>630612</v>
+        <v>628575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714188</v>
+        <v>718215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3257722070165159</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3064076680326435</v>
+        <v>0.3054179000432162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3470161285150065</v>
+        <v>0.3489729568058271</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>521656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>486805</v>
+        <v>483796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>560394</v>
+        <v>556059</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5023874097945822</v>
+        <v>0.5023874097945823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4688230237837688</v>
+        <v>0.465925539275932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5396936560040312</v>
+        <v>0.5355189644336663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>820</v>
@@ -5174,19 +5174,19 @@
         <v>543500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>513992</v>
+        <v>510848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>573638</v>
+        <v>570742</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5229904874362616</v>
+        <v>0.5229904874362618</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4945960075622825</v>
+        <v>0.491571249600716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5519921086520996</v>
+        <v>0.5492049496847686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1377</v>
@@ -5195,19 +5195,19 @@
         <v>1065156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1019907</v>
+        <v>1018497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1109931</v>
+        <v>1107679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5126932132634854</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4909137647770382</v>
+        <v>0.4902352061755109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5342449973341822</v>
+        <v>0.5331608977715908</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>516699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>477961</v>
+        <v>482296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>551550</v>
+        <v>554559</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4976125902054176</v>
+        <v>0.4976125902054178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4603063439959689</v>
+        <v>0.4644810355663339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5311769762162314</v>
+        <v>0.5340744607240681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -5245,19 +5245,19 @@
         <v>495715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465577</v>
+        <v>468473</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525223</v>
+        <v>528367</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4770095125637383</v>
+        <v>0.4770095125637382</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4480078913479004</v>
+        <v>0.4507950503152311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5054039924377174</v>
+        <v>0.5084287503992835</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1147</v>
@@ -5266,19 +5266,19 @@
         <v>1012413</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>967638</v>
+        <v>969890</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1057662</v>
+        <v>1059072</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4873067867365145</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4657550026658173</v>
+        <v>0.4668391022284089</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5090862352229613</v>
+        <v>0.5097647938244891</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>463326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>428777</v>
+        <v>428144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>498291</v>
+        <v>497704</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.478720451292216</v>
+        <v>0.4787204512922161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4430231646429561</v>
+        <v>0.4423696060976081</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5148473804857117</v>
+        <v>0.514240408308775</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>655</v>
@@ -5391,19 +5391,19 @@
         <v>410462</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>384812</v>
+        <v>383177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>436019</v>
+        <v>439241</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.455083906573337</v>
+        <v>0.4550839065733372</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4266453806366882</v>
+        <v>0.4248327533110262</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.483420290247998</v>
+        <v>0.486991889321219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1136</v>
@@ -5412,19 +5412,19 @@
         <v>873788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>831195</v>
+        <v>831214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>919107</v>
+        <v>914952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4673186870497991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.444539305696062</v>
+        <v>0.4445495525280821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4915560794891558</v>
+        <v>0.4893341931509519</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>504517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469552</v>
+        <v>470139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>539066</v>
+        <v>539699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5212795487077839</v>
+        <v>0.521279548707784</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4851526195142883</v>
+        <v>0.4857595916912254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5569768353570439</v>
+        <v>0.5576303939023919</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>654</v>
@@ -5462,19 +5462,19 @@
         <v>491485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>465928</v>
+        <v>462706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>517135</v>
+        <v>518770</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5449160934266628</v>
+        <v>0.5449160934266629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5165797097520018</v>
+        <v>0.513008110678781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5733546193633117</v>
+        <v>0.5751672466889737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1111</v>
@@ -5483,19 +5483,19 @@
         <v>996002</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>950683</v>
+        <v>954838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1038595</v>
+        <v>1038576</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5326813129502009</v>
+        <v>0.5326813129502008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5084439205108443</v>
+        <v>0.5106658068490481</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5554606943039381</v>
+        <v>0.555450447471918</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1977674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1905608</v>
+        <v>1912671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2035459</v>
+        <v>2042426</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5726836317124955</v>
+        <v>0.5726836317124956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5518154123630499</v>
+        <v>0.5538604073298532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5894168487686726</v>
+        <v>0.5914343072395833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3188</v>
@@ -5608,19 +5608,19 @@
         <v>2135948</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2080520</v>
+        <v>2075857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2187174</v>
+        <v>2185522</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5829775634347184</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5678493392241972</v>
+        <v>0.5665765870305239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5969590870551671</v>
+        <v>0.5965081935182593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5191</v>
@@ -5629,19 +5629,19 @@
         <v>4113621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4032330</v>
+        <v>4029273</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4197069</v>
+        <v>4194922</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5779828364967083</v>
+        <v>0.5779828364967086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5665609926651468</v>
+        <v>0.5661315648783278</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5897076036563522</v>
+        <v>0.5894059228377645</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1475670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1417885</v>
+        <v>1410918</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1547736</v>
+        <v>1540673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4273163682875045</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4105831512313271</v>
+        <v>0.4085656927604168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4481845876369502</v>
+        <v>0.4461395926701469</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2065</v>
@@ -5679,19 +5679,19 @@
         <v>1527911</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1476685</v>
+        <v>1478337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1583339</v>
+        <v>1588002</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4170224365652816</v>
+        <v>0.4170224365652815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4030409129448331</v>
+        <v>0.4034918064817407</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4321506607758028</v>
+        <v>0.4334234129694763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3374</v>
@@ -5700,19 +5700,19 @@
         <v>3003582</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2920134</v>
+        <v>2922281</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3084873</v>
+        <v>3087930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4220171635032917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4102923963436477</v>
+        <v>0.4105940771622348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4334390073348532</v>
+        <v>0.4338684351216721</v>
       </c>
     </row>
     <row r="18">
